--- a/biology/Zoologie/Hurleur_roux/Hurleur_roux.xlsx
+++ b/biology/Zoologie/Hurleur_roux/Hurleur_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alouatta seniculus
 Le Hurleur roux (Alouatta seniculus) est une espèce de primate néotropical.
@@ -513,9 +525,11 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Longueur du corps[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Longueur du corps :
 Mâle : 50 à 70 cm
 Femelle : 45 à 55 cm
 Longueur de la queue : 50 à 75 cm
@@ -550,7 +564,9 @@
           <t>Ostéologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'os hyoïde de cette famille présente une particularité très franche avec une hypertrophie "en gobelet" qui entre pour une part dans la production sonore très particulière qui a inspiré le nom vernaculaire de singes hurleurs.
 			Crâne de 3/4 - Muséum de Toulouse
@@ -583,7 +599,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Maturité sexuelle : 3 ans
 Gestation : 140 jours
@@ -619,7 +637,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de feuilles, de fruits, de noix, de graines, de petits mammifères, de reptiles et d'oiseaux.
 </t>
@@ -650,7 +670,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Alouatta seniculus ssp. insulanus
 Alouatta seniculus ssp. juara
@@ -682,7 +704,9 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce se rencontre au Brésil (état de l'Amazonas), au Pérou, en Équateur, en Colombie et au Venezuela.
 </t>
